--- a/src/common/templates/06.Notching.xlsx
+++ b/src/common/templates/06.Notching.xlsx
@@ -8,13 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDF3B31-8004-470B-9511-327B08A8D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B031A3E-3392-4A72-86DD-8345F0B68F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="495" windowWidth="19395" windowHeight="14940" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="노칭 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="approver">'노칭 작업 일지'!$L$5</definedName>
+    <definedName name="cleanCheck">'노칭 작업 일지'!$G$42</definedName>
+    <definedName name="equipmentCheckResult">'노칭 작업 일지'!$C$40</definedName>
+    <definedName name="equipmentIssue">'노칭 작업 일지'!$K$40</definedName>
+    <definedName name="jigNumber">'노칭 작업 일지'!$G$40</definedName>
+    <definedName name="line">'노칭 작업 일지'!$C$8</definedName>
+    <definedName name="manufactureDate">'노칭 작업 일지'!$C$7</definedName>
+    <definedName name="plant">'노칭 작업 일지'!$G$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'노칭 작업 일지'!$A$1:$L$50</definedName>
+    <definedName name="productionId">'노칭 작업 일지'!$G$7</definedName>
+    <definedName name="remark">'노칭 작업 일지'!$A$44</definedName>
+    <definedName name="reviewer">'노칭 작업 일지'!$K$5</definedName>
+    <definedName name="safety">'노칭 작업 일지'!$K$42</definedName>
+    <definedName name="shift">'노칭 작업 일지'!$K$8</definedName>
+    <definedName name="tempHumi">'노칭 작업 일지'!$C$42</definedName>
+    <definedName name="worker">'노칭 작업 일지'!$K$7</definedName>
+    <definedName name="writer">'노칭 작업 일지'!$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>노칭 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -207,10 +226,6 @@
   </si>
   <si>
     <t>설비 점검 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -328,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -601,6 +616,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,17 +662,167 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -629,164 +831,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,1030 +1181,976 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="58"/>
+    <col min="10" max="12" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="43"/>
+      <c r="K15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="29"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="29"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="12" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="29"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="29"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="29"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="29"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="12" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="29"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="29"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="12" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="29"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
+      <c r="A37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="29"/>
+      <c r="A38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="29"/>
-    </row>
-    <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
+      <c r="A39" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
+      <c r="A41" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="56"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
+      <c r="A42" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
+      <c r="A43" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="12">
-        <v>1251231</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" s="12"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="57"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
-    <mergeCell ref="A48:L54"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
+  <mergeCells count="125">
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:D30"/>
     <mergeCell ref="E29:F30"/>
@@ -2162,79 +2163,45 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A44:L50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/common/templates/06.Notching.xlsx
+++ b/src/common/templates/06.Notching.xlsx
@@ -8,29 +8,106 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B031A3E-3392-4A72-86DD-8345F0B68F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8E6F3-F057-4C00-BEC4-C92EFDC21950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
+    <workbookView xWindow="-15600" yWindow="675" windowWidth="15495" windowHeight="14820" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="노칭 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="approver">'노칭 작업 일지'!$L$5</definedName>
+    <definedName name="burr1">'노칭 작업 일지'!$F$19</definedName>
+    <definedName name="burr2">'노칭 작업 일지'!$F$23</definedName>
+    <definedName name="burr3">'노칭 작업 일지'!$F$27</definedName>
+    <definedName name="burr4">'노칭 작업 일지'!$F$31</definedName>
+    <definedName name="burr5">'노칭 작업 일지'!$F$35</definedName>
     <definedName name="cleanCheck">'노칭 작업 일지'!$G$42</definedName>
+    <definedName name="damage1">'노칭 작업 일지'!$H$19</definedName>
+    <definedName name="damage2">'노칭 작업 일지'!$H$23</definedName>
+    <definedName name="damage3">'노칭 작업 일지'!$H$27</definedName>
+    <definedName name="damage4">'노칭 작업 일지'!$H$31</definedName>
+    <definedName name="damage5">'노칭 작업 일지'!$H$35</definedName>
+    <definedName name="defectQuantity1">'노칭 작업 일지'!$I$17</definedName>
+    <definedName name="defectQuantity2">'노칭 작업 일지'!$I$21</definedName>
+    <definedName name="defectQuantity3">'노칭 작업 일지'!$I$25</definedName>
+    <definedName name="defectQuantity4">'노칭 작업 일지'!$I$29</definedName>
+    <definedName name="defectQuantity5">'노칭 작업 일지'!$K$33</definedName>
+    <definedName name="dimension1">'노칭 작업 일지'!$D$19</definedName>
+    <definedName name="dimension2">'노칭 작업 일지'!$D$23</definedName>
+    <definedName name="dimension3">'노칭 작업 일지'!$D$27</definedName>
+    <definedName name="dimension4">'노칭 작업 일지'!$D$31</definedName>
+    <definedName name="dimension5">'노칭 작업 일지'!$D$35</definedName>
     <definedName name="equipmentCheckResult">'노칭 작업 일지'!$C$40</definedName>
     <definedName name="equipmentIssue">'노칭 작업 일지'!$K$40</definedName>
+    <definedName name="goodQuantity1">'노칭 작업 일지'!$K$17</definedName>
+    <definedName name="goodQuantity2">'노칭 작업 일지'!$K$21</definedName>
+    <definedName name="goodQuantity3">'노칭 작업 일지'!$K$25</definedName>
+    <definedName name="goodQuantity4">'노칭 작업 일지'!$K$29</definedName>
+    <definedName name="goodQuantity5">'노칭 작업 일지'!$K$33</definedName>
     <definedName name="jigNumber">'노칭 작업 일지'!$G$40</definedName>
+    <definedName name="length1">'노칭 작업 일지'!$H$20</definedName>
+    <definedName name="length2">'노칭 작업 일지'!$H$24</definedName>
+    <definedName name="length3">'노칭 작업 일지'!$H$28</definedName>
+    <definedName name="length4">'노칭 작업 일지'!$H$32</definedName>
+    <definedName name="length5">'노칭 작업 일지'!$H$36</definedName>
     <definedName name="line">'노칭 작업 일지'!$C$8</definedName>
     <definedName name="manufactureDate">'노칭 작업 일지'!$C$7</definedName>
+    <definedName name="missMatch1">'노칭 작업 일지'!$K$20</definedName>
+    <definedName name="missMatch2">'노칭 작업 일지'!$K$24</definedName>
+    <definedName name="missMatch3">'노칭 작업 일지'!$K$28</definedName>
+    <definedName name="missMatch4">'노칭 작업 일지'!$K$32</definedName>
+    <definedName name="missMatch5">'노칭 작업 일지'!$K$36</definedName>
+    <definedName name="nonCutting1">'노칭 작업 일지'!$K$19</definedName>
+    <definedName name="nonCutting2">'노칭 작업 일지'!$K$23</definedName>
+    <definedName name="nonCutting3">'노칭 작업 일지'!$K$27</definedName>
+    <definedName name="nonCutting4">'노칭 작업 일지'!$K$31</definedName>
+    <definedName name="nonCutting5">'노칭 작업 일지'!$K$35</definedName>
+    <definedName name="notchingLot1">'노칭 작업 일지'!$E$17</definedName>
+    <definedName name="notchingLot2">'노칭 작업 일지'!$E$21</definedName>
+    <definedName name="notchingLot3">'노칭 작업 일지'!$E$25</definedName>
+    <definedName name="notchingLot4">'노칭 작업 일지'!$E$29</definedName>
+    <definedName name="notchingLot5">'노칭 작업 일지'!$E$33</definedName>
+    <definedName name="notchingQuantity1">'노칭 작업 일지'!$G$17</definedName>
+    <definedName name="notchingQuantity2">'노칭 작업 일지'!$G$21</definedName>
+    <definedName name="notchingQuantity3">'노칭 작업 일지'!$G$25</definedName>
+    <definedName name="notchingQuantity4">'노칭 작업 일지'!$G$29</definedName>
+    <definedName name="notchingQuantity5">'노칭 작업 일지'!$G$33</definedName>
+    <definedName name="overTab1">'노칭 작업 일지'!$D$20</definedName>
+    <definedName name="overTab2">'노칭 작업 일지'!$D$24</definedName>
+    <definedName name="overTab3">'노칭 작업 일지'!$D$28</definedName>
+    <definedName name="overTab4">'노칭 작업 일지'!$D$32</definedName>
+    <definedName name="overTab5">'노칭 작업 일지'!$D$36</definedName>
     <definedName name="plant">'노칭 작업 일지'!$G$8</definedName>
+    <definedName name="pressLot1">'노칭 작업 일지'!$A$17</definedName>
+    <definedName name="pressLot2">'노칭 작업 일지'!$A$21</definedName>
+    <definedName name="pressLot3">'노칭 작업 일지'!$A$25</definedName>
+    <definedName name="pressLot4">'노칭 작업 일지'!$A$29</definedName>
+    <definedName name="pressLot5">'노칭 작업 일지'!$A$33</definedName>
+    <definedName name="pressQuantity1">'노칭 작업 일지'!$C$17</definedName>
+    <definedName name="pressQuantity2">'노칭 작업 일지'!$C$21</definedName>
+    <definedName name="pressQuantity3">'노칭 작업 일지'!$C$25</definedName>
+    <definedName name="pressQuantity4">'노칭 작업 일지'!$C$29</definedName>
+    <definedName name="pressQuantity5">'노칭 작업 일지'!$C$33</definedName>
+    <definedName name="pressRollLot1">'노칭 작업 일지'!$C$12</definedName>
+    <definedName name="pressRollLot2">'노칭 작업 일지'!$E$12</definedName>
+    <definedName name="pressRollLot3">'노칭 작업 일지'!$G$12</definedName>
+    <definedName name="pressRollLot4">'노칭 작업 일지'!$I$12</definedName>
+    <definedName name="pressRollLot5">'노칭 작업 일지'!$K$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'노칭 작업 일지'!$A$1:$L$50</definedName>
     <definedName name="productionId">'노칭 작업 일지'!$G$7</definedName>
+    <definedName name="punchingSpeed">'노칭 작업 일지'!$G$38</definedName>
     <definedName name="remark">'노칭 작업 일지'!$A$44</definedName>
     <definedName name="reviewer">'노칭 작업 일지'!$K$5</definedName>
     <definedName name="safety">'노칭 작업 일지'!$K$42</definedName>
     <definedName name="shift">'노칭 작업 일지'!$K$8</definedName>
     <definedName name="tempHumi">'노칭 작업 일지'!$C$42</definedName>
+    <definedName name="tension">'노칭 작업 일지'!$C$38</definedName>
+    <definedName name="wide1">'노칭 작업 일지'!$F$20</definedName>
+    <definedName name="wide2">'노칭 작업 일지'!$F$24</definedName>
+    <definedName name="wide3">'노칭 작업 일지'!$F$28</definedName>
+    <definedName name="wide4">'노칭 작업 일지'!$F$32</definedName>
+    <definedName name="wide5">'노칭 작업 일지'!$F$36</definedName>
     <definedName name="worker">'노칭 작업 일지'!$K$7</definedName>
     <definedName name="writer">'노칭 작업 일지'!$J$5</definedName>
   </definedNames>
@@ -55,225 +132,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>노칭 작업 일지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>검토</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 기본 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제조 일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 No.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작업자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>라인명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용 설비명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Shift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1 shift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. 자재 투입 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Roll 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Roll 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Roll 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Roll 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Roll 5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프레스 생산 로트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>타발 전극 로트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. 생산 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프레스 Lot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실제 투입량(M)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>노칭 Lot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>타발 수량(EA)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>불량 수량(EA)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>양품 수량(EA)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>불량 상세 수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>치수불량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버 불량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>파손 불량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>논 커팅 불량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>치수 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OVER Tab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Wide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lengh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Miss Match</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4. 공정 조건</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>타발 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5. 설비 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설비 점검 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용 지그 No.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설비 이상 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6. 환경 및 기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공정 온도. 습도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>청결 상태 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>안정 장비 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,175 +718,163 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -834,6 +886,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,9 +913,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1183,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,17 +1265,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1215,140 +1287,140 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="36" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="36" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="36" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="36" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="49" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="49"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
@@ -1371,8 +1443,8 @@
       <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -1385,109 +1457,107 @@
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="42" t="s">
+      <c r="F15" s="46"/>
+      <c r="G15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="38" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="42" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1502,23 +1572,23 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -1526,44 +1596,44 @@
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1578,23 +1648,23 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -1602,44 +1672,44 @@
     </row>
     <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1654,23 +1724,23 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -1678,44 +1748,44 @@
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29"/>
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1730,23 +1800,23 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -1754,44 +1824,44 @@
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1806,23 +1876,23 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -1830,149 +1900,149 @@
     </row>
     <row r="36" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="59"/>
+      <c r="A37" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
       <c r="D38" s="20"/>
       <c r="E38" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
+      <c r="A39" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="18"/>
       <c r="D40" s="17"/>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="18"/>
       <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="56"/>
+      <c r="A41" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="56"/>
+      <c r="A43" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
@@ -2073,7 +2143,7 @@
       <c r="L50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="119">
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="A39:L39"/>
@@ -2103,18 +2173,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="E17:F18"/>
@@ -2200,7 +2264,7 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/common/templates/06.Notching.xlsx
+++ b/src/common/templates/06.Notching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8E6F3-F057-4C00-BEC4-C92EFDC21950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA677A-63C6-4BEE-848B-CECA970D5790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15600" yWindow="675" windowWidth="15495" windowHeight="14820" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
+    <workbookView xWindow="1950" yWindow="1260" windowWidth="18060" windowHeight="14940" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="노칭 작업 일지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="defectQuantity2">'노칭 작업 일지'!$I$21</definedName>
     <definedName name="defectQuantity3">'노칭 작업 일지'!$I$25</definedName>
     <definedName name="defectQuantity4">'노칭 작업 일지'!$I$29</definedName>
-    <definedName name="defectQuantity5">'노칭 작업 일지'!$K$33</definedName>
+    <definedName name="defectQuantity5">'노칭 작업 일지'!$I$33</definedName>
     <definedName name="dimension1">'노칭 작업 일지'!$D$19</definedName>
     <definedName name="dimension2">'노칭 작업 일지'!$D$23</definedName>
     <definedName name="dimension3">'노칭 작업 일지'!$D$27</definedName>
@@ -745,138 +745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,24 +754,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +764,156 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F13"/>
+      <selection activeCell="K29" sqref="K29:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1265,17 +1265,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,294 +1287,294 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="39" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="39" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="50" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="50"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="45" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="45" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1587,18 +1587,18 @@
         <v>30</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="25"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1611,46 +1611,46 @@
         <v>35</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="25"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1663,18 +1663,18 @@
         <v>30</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="25"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
@@ -1687,46 +1687,46 @@
         <v>35</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="25"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1739,18 +1739,18 @@
         <v>30</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="25"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="4" t="s">
         <v>33</v>
       </c>
@@ -1763,46 +1763,46 @@
         <v>35</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="25"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1815,18 +1815,18 @@
         <v>30</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="25"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
@@ -1839,46 +1839,46 @@
         <v>35</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="31"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="25"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
@@ -1891,18 +1891,18 @@
         <v>30</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="25"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
@@ -1915,235 +1915,330 @@
         <v>35</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="62"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16" t="s">
+      <c r="F42" s="28"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="59"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="12"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="59"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="12"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="A44:L50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="A39:L39"/>
@@ -2168,101 +2263,6 @@
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A44:L50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/06.Notching.xlsx
+++ b/src/common/templates/06.Notching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA677A-63C6-4BEE-848B-CECA970D5790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA784E-7CA4-422E-BEFE-C2A79B0CD482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1260" windowWidth="18060" windowHeight="14940" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="14310" windowHeight="14940" xr2:uid="{3CB46470-7292-4A4B-8F82-F37179D7C0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="노칭 작업 일지" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>노칭 작업 일지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -327,6 +327,22 @@
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -745,6 +761,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +902,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -764,156 +930,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:L30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1265,17 +1281,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,294 +1303,294 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="46"/>
+      <c r="G15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1587,18 +1603,18 @@
         <v>30</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1611,46 +1627,46 @@
         <v>35</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="31"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="32"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1663,18 +1679,18 @@
         <v>30</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="32"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
@@ -1687,46 +1703,46 @@
         <v>35</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="31"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1739,18 +1755,18 @@
         <v>30</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="32"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="4" t="s">
         <v>33</v>
       </c>
@@ -1763,46 +1779,46 @@
         <v>35</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="31"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="32"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1815,18 +1831,18 @@
         <v>30</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="32"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
@@ -1839,46 +1855,46 @@
         <v>35</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="48"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="31"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="32"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
@@ -1891,18 +1907,18 @@
         <v>30</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="32"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
@@ -1915,330 +1931,245 @@
         <v>35</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="46" t="s">
+      <c r="I36" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="48"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="9"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="28" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="28" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="30"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="28" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="28" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="56"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="59"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="57"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="59"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="59"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="62"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="A44:L50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="A39:L39"/>
@@ -2263,6 +2194,101 @@
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A44:L50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
